--- a/Data Tables/PFF RB Data.xlsx
+++ b/Data Tables/PFF RB Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Spyder\Projects\CFB Player Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App\Spyder\Projects\CFB-Player-Dashboard\Data Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A0631-A89C-48DE-A650-B794E7FA81AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED967F0-331D-44D8-B9DC-89FED340F018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1770" yWindow="1350" windowWidth="27030" windowHeight="14130" xr2:uid="{2F0793FF-EBCC-4540-AB6A-62248EAE4158}"/>
   </bookViews>
@@ -679,9 +679,6 @@
     <t>Amari Daniels</t>
   </si>
   <si>
-    <t>LJ Johnson Jr.</t>
-  </si>
-  <si>
     <t>Montrell Johnson Jr.</t>
   </si>
   <si>
@@ -1814,6 +1811,9 @@
   </si>
   <si>
     <t>RUSHING TDS</t>
+  </si>
+  <si>
+    <t>LJ Johnson</t>
   </si>
 </sst>
 </file>
@@ -2672,48 +2672,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AA739B-8DF2-4B22-AA9F-44845E4D6E54}">
   <dimension ref="A1:L586"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J1" t="s">
+        <v>590</v>
+      </c>
+      <c r="K1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" t="s">
         <v>586</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" t="s">
-        <v>594</v>
-      </c>
-      <c r="F1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I1" t="s">
-        <v>590</v>
-      </c>
-      <c r="J1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K1" t="s">
-        <v>589</v>
-      </c>
-      <c r="L1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D2">
         <v>59</v>
@@ -2764,7 +2764,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D3">
         <v>69</v>
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4">
         <v>344</v>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D5">
         <v>51</v>
@@ -2881,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D6">
         <v>82</v>
@@ -2920,7 +2920,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D7">
         <v>122</v>
@@ -2959,7 +2959,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8">
         <v>61</v>
@@ -2998,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D9">
         <v>145</v>
@@ -3037,7 +3037,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D10">
         <v>56</v>
@@ -3076,7 +3076,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D11">
         <v>204</v>
@@ -3115,7 +3115,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -3154,7 +3154,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D13">
         <v>80</v>
@@ -3193,7 +3193,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D14">
         <v>82</v>
@@ -3232,7 +3232,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D15">
         <v>57</v>
@@ -3271,7 +3271,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -3310,7 +3310,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D17">
         <v>67</v>
@@ -3349,7 +3349,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D18">
         <v>252</v>
@@ -3388,7 +3388,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D19">
         <v>172</v>
@@ -3427,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D20">
         <v>137</v>
@@ -3466,7 +3466,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D21">
         <v>74</v>
@@ -3505,7 +3505,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D22">
         <v>149</v>
@@ -3544,7 +3544,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D23">
         <v>86</v>
@@ -3583,7 +3583,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D24">
         <v>162</v>
@@ -3622,7 +3622,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25">
         <v>63</v>
@@ -3661,7 +3661,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3700,7 +3700,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D27">
         <v>99</v>
@@ -3739,7 +3739,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D28">
         <v>109</v>
@@ -3778,7 +3778,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D29">
         <v>66</v>
@@ -3817,7 +3817,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D30">
         <v>89</v>
@@ -3856,7 +3856,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D31">
         <v>118</v>
@@ -3895,7 +3895,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D32">
         <v>184</v>
@@ -3934,7 +3934,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D33">
         <v>79</v>
@@ -3973,7 +3973,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D34">
         <v>67</v>
@@ -4012,7 +4012,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D35">
         <v>111</v>
@@ -4051,7 +4051,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D36">
         <v>70</v>
@@ -4090,7 +4090,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D37">
         <v>56</v>
@@ -4129,7 +4129,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D38">
         <v>184</v>
@@ -4168,7 +4168,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D39">
         <v>79</v>
@@ -4207,7 +4207,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D40">
         <v>235</v>
@@ -4246,7 +4246,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D41">
         <v>55</v>
@@ -4285,7 +4285,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D42">
         <v>203</v>
@@ -4324,7 +4324,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D43">
         <v>88</v>
@@ -4363,7 +4363,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D44">
         <v>78</v>
@@ -4402,7 +4402,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D45">
         <v>127</v>
@@ -4441,7 +4441,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D46">
         <v>123</v>
@@ -4480,7 +4480,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D47">
         <v>62</v>
@@ -4519,7 +4519,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D48">
         <v>134</v>
@@ -4558,7 +4558,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D49">
         <v>55</v>
@@ -4597,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D50">
         <v>87</v>
@@ -4636,7 +4636,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D51">
         <v>107</v>
@@ -4675,7 +4675,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D52">
         <v>192</v>
@@ -4714,7 +4714,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D53">
         <v>73</v>
@@ -4753,7 +4753,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D54">
         <v>154</v>
@@ -4792,7 +4792,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D55">
         <v>198</v>
@@ -4831,7 +4831,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D56">
         <v>90</v>
@@ -4870,7 +4870,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D57">
         <v>113</v>
@@ -4909,7 +4909,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D58">
         <v>205</v>
@@ -4948,7 +4948,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D59">
         <v>129</v>
@@ -4987,7 +4987,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D60">
         <v>89</v>
@@ -5026,7 +5026,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D61">
         <v>95</v>
@@ -5065,7 +5065,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D62">
         <v>139</v>
@@ -5104,7 +5104,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D63">
         <v>124</v>
@@ -5143,7 +5143,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D64">
         <v>187</v>
@@ -5182,7 +5182,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D65">
         <v>274</v>
@@ -5221,7 +5221,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D66">
         <v>111</v>
@@ -5260,7 +5260,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D67">
         <v>84</v>
@@ -5299,7 +5299,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D68">
         <v>98</v>
@@ -5338,7 +5338,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D69">
         <v>96</v>
@@ -5377,7 +5377,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D70">
         <v>59</v>
@@ -5416,7 +5416,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D71">
         <v>54</v>
@@ -5455,7 +5455,7 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D72">
         <v>78</v>
@@ -5494,7 +5494,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D73">
         <v>120</v>
@@ -5533,7 +5533,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D74">
         <v>70</v>
@@ -5572,7 +5572,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D75">
         <v>121</v>
@@ -5611,7 +5611,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D76">
         <v>50</v>
@@ -5650,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D77">
         <v>52</v>
@@ -5689,7 +5689,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D78">
         <v>166</v>
@@ -5728,7 +5728,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D79">
         <v>120</v>
@@ -5767,7 +5767,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D80">
         <v>133</v>
@@ -5806,7 +5806,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D81">
         <v>112</v>
@@ -5845,7 +5845,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D82">
         <v>166</v>
@@ -5884,7 +5884,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D83">
         <v>65</v>
@@ -5923,7 +5923,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D84">
         <v>99</v>
@@ -5962,7 +5962,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D85">
         <v>58</v>
@@ -6001,7 +6001,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D86">
         <v>84</v>
@@ -6040,7 +6040,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D87">
         <v>58</v>
@@ -6079,7 +6079,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D88">
         <v>158</v>
@@ -6118,7 +6118,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D89">
         <v>151</v>
@@ -6157,7 +6157,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D90">
         <v>289</v>
@@ -6196,7 +6196,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D91">
         <v>53</v>
@@ -6235,7 +6235,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D92">
         <v>204</v>
@@ -6274,7 +6274,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D93">
         <v>162</v>
@@ -6313,7 +6313,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D94">
         <v>154</v>
@@ -6352,7 +6352,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D95">
         <v>119</v>
@@ -6391,7 +6391,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D96">
         <v>60</v>
@@ -6430,7 +6430,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D97">
         <v>137</v>
@@ -6469,7 +6469,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D98">
         <v>94</v>
@@ -6508,7 +6508,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D99">
         <v>62</v>
@@ -6547,7 +6547,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D100">
         <v>208</v>
@@ -6586,7 +6586,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D101">
         <v>145</v>
@@ -6625,7 +6625,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D102">
         <v>106</v>
@@ -6664,7 +6664,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D103">
         <v>154</v>
@@ -6703,7 +6703,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D104">
         <v>132</v>
@@ -6742,7 +6742,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D105">
         <v>200</v>
@@ -6781,7 +6781,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D106">
         <v>203</v>
@@ -6820,7 +6820,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D107">
         <v>101</v>
@@ -6859,7 +6859,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D108">
         <v>79</v>
@@ -6898,7 +6898,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D109">
         <v>69</v>
@@ -6937,7 +6937,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D110">
         <v>60</v>
@@ -6976,7 +6976,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D111">
         <v>188</v>
@@ -7015,7 +7015,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D112">
         <v>87</v>
@@ -7054,7 +7054,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D113">
         <v>140</v>
@@ -7093,7 +7093,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D114">
         <v>185</v>
@@ -7132,7 +7132,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D115">
         <v>182</v>
@@ -7171,7 +7171,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D116">
         <v>112</v>
@@ -7210,7 +7210,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D117">
         <v>138</v>
@@ -7249,7 +7249,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D118">
         <v>127</v>
@@ -7288,7 +7288,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D119">
         <v>221</v>
@@ -7327,7 +7327,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D120">
         <v>257</v>
@@ -7366,7 +7366,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D121">
         <v>79</v>
@@ -7405,7 +7405,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D122">
         <v>82</v>
@@ -7444,7 +7444,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D123">
         <v>173</v>
@@ -7483,7 +7483,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D124">
         <v>300</v>
@@ -7522,7 +7522,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D125">
         <v>51</v>
@@ -7561,7 +7561,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D126">
         <v>51</v>
@@ -7600,7 +7600,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D127">
         <v>158</v>
@@ -7639,7 +7639,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D128">
         <v>65</v>
@@ -7678,7 +7678,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D129">
         <v>66</v>
@@ -7717,7 +7717,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D130">
         <v>113</v>
@@ -7756,7 +7756,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D131">
         <v>70</v>
@@ -7795,7 +7795,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D132">
         <v>54</v>
@@ -7834,7 +7834,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D133">
         <v>62</v>
@@ -7873,7 +7873,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D134">
         <v>67</v>
@@ -7912,7 +7912,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D135">
         <v>217</v>
@@ -7951,7 +7951,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D136">
         <v>124</v>
@@ -7990,7 +7990,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D137">
         <v>77</v>
@@ -8029,7 +8029,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D138">
         <v>65</v>
@@ -8068,7 +8068,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D139">
         <v>114</v>
@@ -8107,7 +8107,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D140">
         <v>123</v>
@@ -8146,7 +8146,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D141">
         <v>103</v>
@@ -8185,7 +8185,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D142">
         <v>79</v>
@@ -8224,7 +8224,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D143">
         <v>159</v>
@@ -8263,7 +8263,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D144">
         <v>147</v>
@@ -8302,7 +8302,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D145">
         <v>158</v>
@@ -8341,7 +8341,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D146">
         <v>94</v>
@@ -8380,7 +8380,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D147">
         <v>92</v>
@@ -8419,7 +8419,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D148">
         <v>201</v>
@@ -8458,7 +8458,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D149">
         <v>57</v>
@@ -8497,7 +8497,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D150">
         <v>50</v>
@@ -8536,7 +8536,7 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D151">
         <v>155</v>
@@ -8575,7 +8575,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D152">
         <v>155</v>
@@ -8614,7 +8614,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D153">
         <v>143</v>
@@ -8653,7 +8653,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D154">
         <v>102</v>
@@ -8692,7 +8692,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D155">
         <v>166</v>
@@ -8731,7 +8731,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D156">
         <v>291</v>
@@ -8770,7 +8770,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D157">
         <v>133</v>
@@ -8809,7 +8809,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D158">
         <v>69</v>
@@ -8848,7 +8848,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D159">
         <v>150</v>
@@ -8887,7 +8887,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D160">
         <v>51</v>
@@ -8926,7 +8926,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D161">
         <v>274</v>
@@ -8965,7 +8965,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D162">
         <v>111</v>
@@ -9004,7 +9004,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D163">
         <v>61</v>
@@ -9043,7 +9043,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D164">
         <v>68</v>
@@ -9082,7 +9082,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D165">
         <v>75</v>
@@ -9121,7 +9121,7 @@
         <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D166">
         <v>124</v>
@@ -9160,7 +9160,7 @@
         <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D167">
         <v>168</v>
@@ -9199,7 +9199,7 @@
         <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D168">
         <v>171</v>
@@ -9238,7 +9238,7 @@
         <v>168</v>
       </c>
       <c r="C169" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D169">
         <v>117</v>
@@ -9277,7 +9277,7 @@
         <v>169</v>
       </c>
       <c r="C170" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D170">
         <v>237</v>
@@ -9316,7 +9316,7 @@
         <v>170</v>
       </c>
       <c r="C171" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D171">
         <v>133</v>
@@ -9355,7 +9355,7 @@
         <v>171</v>
       </c>
       <c r="C172" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D172">
         <v>230</v>
@@ -9394,7 +9394,7 @@
         <v>172</v>
       </c>
       <c r="C173" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D173">
         <v>217</v>
@@ -9433,7 +9433,7 @@
         <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D174">
         <v>53</v>
@@ -9472,7 +9472,7 @@
         <v>174</v>
       </c>
       <c r="C175" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D175">
         <v>63</v>
@@ -9511,7 +9511,7 @@
         <v>175</v>
       </c>
       <c r="C176" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D176">
         <v>70</v>
@@ -9550,7 +9550,7 @@
         <v>176</v>
       </c>
       <c r="C177" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D177">
         <v>61</v>
@@ -9589,7 +9589,7 @@
         <v>177</v>
       </c>
       <c r="C178" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D178">
         <v>150</v>
@@ -9628,7 +9628,7 @@
         <v>178</v>
       </c>
       <c r="C179" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D179">
         <v>221</v>
@@ -9667,7 +9667,7 @@
         <v>179</v>
       </c>
       <c r="C180" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D180">
         <v>99</v>
@@ -9706,7 +9706,7 @@
         <v>180</v>
       </c>
       <c r="C181" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D181">
         <v>209</v>
@@ -9745,7 +9745,7 @@
         <v>181</v>
       </c>
       <c r="C182" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D182">
         <v>148</v>
@@ -9784,7 +9784,7 @@
         <v>182</v>
       </c>
       <c r="C183" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D183">
         <v>118</v>
@@ -9823,7 +9823,7 @@
         <v>183</v>
       </c>
       <c r="C184" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D184">
         <v>136</v>
@@ -9862,7 +9862,7 @@
         <v>184</v>
       </c>
       <c r="C185" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D185">
         <v>93</v>
@@ -9901,7 +9901,7 @@
         <v>185</v>
       </c>
       <c r="C186" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D186">
         <v>129</v>
@@ -9940,7 +9940,7 @@
         <v>186</v>
       </c>
       <c r="C187" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D187">
         <v>242</v>
@@ -9979,7 +9979,7 @@
         <v>187</v>
       </c>
       <c r="C188" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D188">
         <v>56</v>
@@ -10018,7 +10018,7 @@
         <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D189">
         <v>146</v>
@@ -10057,7 +10057,7 @@
         <v>189</v>
       </c>
       <c r="C190" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D190">
         <v>114</v>
@@ -10096,7 +10096,7 @@
         <v>190</v>
       </c>
       <c r="C191" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D191">
         <v>139</v>
@@ -10135,7 +10135,7 @@
         <v>191</v>
       </c>
       <c r="C192" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D192">
         <v>93</v>
@@ -10174,7 +10174,7 @@
         <v>192</v>
       </c>
       <c r="C193" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D193">
         <v>58</v>
@@ -10213,7 +10213,7 @@
         <v>193</v>
       </c>
       <c r="C194" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D194">
         <v>65</v>
@@ -10252,7 +10252,7 @@
         <v>194</v>
       </c>
       <c r="C195" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D195">
         <v>90</v>
@@ -10291,7 +10291,7 @@
         <v>195</v>
       </c>
       <c r="C196" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D196">
         <v>82</v>
@@ -10330,7 +10330,7 @@
         <v>196</v>
       </c>
       <c r="C197" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D197">
         <v>174</v>
@@ -10369,7 +10369,7 @@
         <v>197</v>
       </c>
       <c r="C198" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D198">
         <v>91</v>
@@ -10408,7 +10408,7 @@
         <v>198</v>
       </c>
       <c r="C199" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D199">
         <v>61</v>
@@ -10447,7 +10447,7 @@
         <v>199</v>
       </c>
       <c r="C200" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D200">
         <v>100</v>
@@ -10486,7 +10486,7 @@
         <v>200</v>
       </c>
       <c r="C201" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D201">
         <v>155</v>
@@ -10525,7 +10525,7 @@
         <v>201</v>
       </c>
       <c r="C202" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D202">
         <v>206</v>
@@ -10564,7 +10564,7 @@
         <v>202</v>
       </c>
       <c r="C203" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D203">
         <v>166</v>
@@ -10603,7 +10603,7 @@
         <v>203</v>
       </c>
       <c r="C204" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D204">
         <v>51</v>
@@ -10642,7 +10642,7 @@
         <v>204</v>
       </c>
       <c r="C205" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D205">
         <v>181</v>
@@ -10681,7 +10681,7 @@
         <v>205</v>
       </c>
       <c r="C206" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D206">
         <v>118</v>
@@ -10720,7 +10720,7 @@
         <v>206</v>
       </c>
       <c r="C207" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D207">
         <v>113</v>
@@ -10759,7 +10759,7 @@
         <v>207</v>
       </c>
       <c r="C208" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D208">
         <v>111</v>
@@ -10798,7 +10798,7 @@
         <v>208</v>
       </c>
       <c r="C209" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D209">
         <v>71</v>
@@ -10837,7 +10837,7 @@
         <v>209</v>
       </c>
       <c r="C210" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D210">
         <v>65</v>
@@ -10876,7 +10876,7 @@
         <v>210</v>
       </c>
       <c r="C211" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D211">
         <v>58</v>
@@ -10915,7 +10915,7 @@
         <v>211</v>
       </c>
       <c r="C212" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D212">
         <v>185</v>
@@ -10954,7 +10954,7 @@
         <v>212</v>
       </c>
       <c r="C213" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D213">
         <v>189</v>
@@ -10993,7 +10993,7 @@
         <v>213</v>
       </c>
       <c r="C214" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D214">
         <v>117</v>
@@ -11032,7 +11032,7 @@
         <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D215">
         <v>110</v>
@@ -11071,7 +11071,7 @@
         <v>215</v>
       </c>
       <c r="C216" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D216">
         <v>91</v>
@@ -11110,7 +11110,7 @@
         <v>216</v>
       </c>
       <c r="C217" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D217">
         <v>223</v>
@@ -11149,7 +11149,7 @@
         <v>217</v>
       </c>
       <c r="C218" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D218">
         <v>143</v>
@@ -11182,13 +11182,13 @@
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>LJ _Johnson Jr_RB</v>
+        <v>LJ _Johnson_RB</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>596</v>
       </c>
       <c r="C219" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D219">
         <v>78</v>
@@ -11224,10 +11224,10 @@
         <v>Mon_Johnson Jr_RB</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D220">
         <v>101</v>
@@ -11263,10 +11263,10 @@
         <v>Dre_Washington_RB</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D221">
         <v>73</v>
@@ -11302,10 +11302,10 @@
         <v>Dam_Taylor_RB</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D222">
         <v>170</v>
@@ -11341,10 +11341,10 @@
         <v>Dev_Houston_RB</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D223">
         <v>121</v>
@@ -11380,10 +11380,10 @@
         <v>Nat_Carter_RB</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D224">
         <v>119</v>
@@ -11419,10 +11419,10 @@
         <v>Zio_Hall_RB</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D225">
         <v>61</v>
@@ -11458,10 +11458,10 @@
         <v>Tun_Altahir_RB</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D226">
         <v>140</v>
@@ -11497,10 +11497,10 @@
         <v>Eli_Cummings_RB</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D227">
         <v>97</v>
@@ -11536,10 +11536,10 @@
         <v>Dar_Stewart_RB</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D228">
         <v>80</v>
@@ -11575,10 +11575,10 @@
         <v>Eli_Tau-Tolliv_RB</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D229">
         <v>186</v>
@@ -11614,10 +11614,10 @@
         <v>Cam_Skattebo_RB</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D230">
         <v>298</v>
@@ -11653,10 +11653,10 @@
         <v>Dam_Bankston_RB</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D231">
         <v>182</v>
@@ -11692,10 +11692,10 @@
         <v>Wen_Wright_RB</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D232">
         <v>221</v>
@@ -11731,10 +11731,10 @@
         <v>Gav_Ziebarth_RB</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D233">
         <v>135</v>
@@ -11770,10 +11770,10 @@
         <v>Bar_Kpeenu_RB</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D234">
         <v>135</v>
@@ -11809,10 +11809,10 @@
         <v>Nat_Thomas_RB</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D235">
         <v>103</v>
@@ -11848,10 +11848,10 @@
         <v>Ama_Johnson_RB</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D236">
         <v>194</v>
@@ -11887,10 +11887,10 @@
         <v>Ang_Johnson_RB</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D237">
         <v>93</v>
@@ -11926,10 +11926,10 @@
         <v>Dev_Matthews_RB</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D238">
         <v>133</v>
@@ -11965,10 +11965,10 @@
         <v>Fab_Mukendi_RB</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D239">
         <v>73</v>
@@ -12004,10 +12004,10 @@
         <v>JaM_Clements_RB</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D240">
         <v>152</v>
@@ -12043,10 +12043,10 @@
         <v>Tyv_Edmonds Jr_RB</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D241">
         <v>129</v>
@@ -12082,10 +12082,10 @@
         <v>Ric_Spruill_RB</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D242">
         <v>125</v>
@@ -12121,10 +12121,10 @@
         <v>Jor_DeLucia_RB</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D243">
         <v>50</v>
@@ -12160,10 +12160,10 @@
         <v>Sto_Owen_RB</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D244">
         <v>96</v>
@@ -12199,10 +12199,10 @@
         <v>Joe_Giorgi_RB</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C245" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D245">
         <v>155</v>
@@ -12238,10 +12238,10 @@
         <v>Q J_Jones_RB</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D246">
         <v>166</v>
@@ -12277,10 +12277,10 @@
         <v>Sha_McLaughlin_RB</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D247">
         <v>67</v>
@@ -12316,10 +12316,10 @@
         <v>Jev_Jackson_RB</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D248">
         <v>195</v>
@@ -12355,10 +12355,10 @@
         <v>Jay_Allen_RB</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D249">
         <v>137</v>
@@ -12394,10 +12394,10 @@
         <v>Rus_Baker_RB</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D250">
         <v>183</v>
@@ -12433,10 +12433,10 @@
         <v>Pau_Neel_RB</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D251">
         <v>77</v>
@@ -12472,10 +12472,10 @@
         <v>Jul_Loughridge_RB</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D252">
         <v>198</v>
@@ -12511,10 +12511,10 @@
         <v>Nai_Kearney_RB</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D253">
         <v>84</v>
@@ -12550,10 +12550,10 @@
         <v>Jor_Fuller_RB</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D254">
         <v>70</v>
@@ -12589,10 +12589,10 @@
         <v>Dav_Cherwin_RB</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D255">
         <v>70</v>
@@ -12628,10 +12628,10 @@
         <v>Log_Gingg_RB</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D256">
         <v>93</v>
@@ -12667,10 +12667,10 @@
         <v>Tri_Shannon_RB</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D257">
         <v>59</v>
@@ -12706,10 +12706,10 @@
         <v>Hop_Adebayo_RB</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D258">
         <v>181</v>
@@ -12745,10 +12745,10 @@
         <v>Reg_Davis_RB</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D259">
         <v>218</v>
@@ -12784,10 +12784,10 @@
         <v>Myi_Hicks_RB</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D260">
         <v>132</v>
@@ -12823,10 +12823,10 @@
         <v>Gra_Robinson_RB</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D261">
         <v>80</v>
@@ -12862,10 +12862,10 @@
         <v>Hun_Rice_RB</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D262">
         <v>197</v>
@@ -12901,10 +12901,10 @@
         <v>Bra_Adams_RB</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C263" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D263">
         <v>134</v>
@@ -12940,10 +12940,10 @@
         <v>Dar_Hale_RB</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D264">
         <v>144</v>
@@ -12979,10 +12979,10 @@
         <v>Kyl_James_RB</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D265">
         <v>92</v>
@@ -13018,10 +13018,10 @@
         <v>Bra_Sloan_RB</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D266">
         <v>151</v>
@@ -13057,10 +13057,10 @@
         <v>J'M_Taylor_RB</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C267" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D267">
         <v>204</v>
@@ -13096,10 +13096,10 @@
         <v>Wes_Graves_RB</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D268">
         <v>62</v>
@@ -13135,10 +13135,10 @@
         <v>Bha_Tuten_RB</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D269">
         <v>190</v>
@@ -13174,10 +13174,10 @@
         <v>Sam_Scott_RB</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D270">
         <v>93</v>
@@ -13213,10 +13213,10 @@
         <v>Cha_Harris_RB</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D271">
         <v>72</v>
@@ -13252,10 +13252,10 @@
         <v>Tre_Peterson_RB</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D272">
         <v>63</v>
@@ -13291,10 +13291,10 @@
         <v>Nat_Denney_RB</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D273">
         <v>65</v>
@@ -13330,10 +13330,10 @@
         <v>Q'D_Jennings_RB</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D274">
         <v>89</v>
@@ -13369,10 +13369,10 @@
         <v>Eli_Burris_RB</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D275">
         <v>122</v>
@@ -13408,10 +13408,10 @@
         <v>Tym_Robinson_RB</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D276">
         <v>110</v>
@@ -13447,10 +13447,10 @@
         <v>Ja'_Snipes_RB</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D277">
         <v>95</v>
@@ -13486,10 +13486,10 @@
         <v>Rob_Giaimo_RB</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D278">
         <v>71</v>
@@ -13525,10 +13525,10 @@
         <v>Shu_Powell_RB</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D279">
         <v>167</v>
@@ -13564,10 +13564,10 @@
         <v>Mat_Perez_RB</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D280">
         <v>71</v>
@@ -13603,10 +13603,10 @@
         <v>Isa_Nwokenkwo_RB</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D281">
         <v>51</v>
@@ -13642,10 +13642,10 @@
         <v>Joh_Volker_RB</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D282">
         <v>90</v>
@@ -13681,10 +13681,10 @@
         <v>Ant_Martin_RB</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D283">
         <v>238</v>
@@ -13720,10 +13720,10 @@
         <v>Geo_Pettaway_RB</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D284">
         <v>165</v>
@@ -13759,10 +13759,10 @@
         <v>Xav_Brown_RB</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D285">
         <v>84</v>
@@ -13798,10 +13798,10 @@
         <v>Kal_Johnson_RB</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D286">
         <v>243</v>
@@ -13837,10 +13837,10 @@
         <v>Jaz_Patterson_RB</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D287">
         <v>63</v>
@@ -13876,10 +13876,10 @@
         <v>Emm_Johnson_RB</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D288">
         <v>118</v>
@@ -13915,10 +13915,10 @@
         <v>Dea_Connors_RB</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D289">
         <v>163</v>
@@ -13954,10 +13954,10 @@
         <v>KZ _Adams_RB</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D290">
         <v>100</v>
@@ -13993,10 +13993,10 @@
         <v>Way_Knight_RB</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D291">
         <v>76</v>
@@ -14032,10 +14032,10 @@
         <v>Zyl_Perry_RB</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D292">
         <v>113</v>
@@ -14071,10 +14071,10 @@
         <v>A.J_Turner_RB</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D293">
         <v>107</v>
@@ -14110,10 +14110,10 @@
         <v>DeM_McElroy_RB</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D294">
         <v>129</v>
@@ -14149,10 +14149,10 @@
         <v>Ken_Clay_RB</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C295" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D295">
         <v>86</v>
@@ -14188,10 +14188,10 @@
         <v>Cha_Kellom_RB</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D296">
         <v>83</v>
@@ -14227,10 +14227,10 @@
         <v>Sta_Thomas_RB</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C297" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D297">
         <v>221</v>
@@ -14266,10 +14266,10 @@
         <v>Jad_Price_RB</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D298">
         <v>123</v>
@@ -14305,10 +14305,10 @@
         <v>Jam_Miller_RB</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C299" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D299">
         <v>149</v>
@@ -14344,10 +14344,10 @@
         <v>Ras_Dubinion_RB</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D300">
         <v>57</v>
@@ -14383,10 +14383,10 @@
         <v>Dam_Alston_RB</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C301" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D301">
         <v>53</v>
@@ -14422,10 +14422,10 @@
         <v>Qui_Judkins_RB</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C302" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D302">
         <v>195</v>
@@ -14461,10 +14461,10 @@
         <v>Ash_Jeanty_RB</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D303">
         <v>388</v>
@@ -14500,10 +14500,10 @@
         <v>Jay_Blue_RB</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D304">
         <v>140</v>
@@ -14539,10 +14539,10 @@
         <v>CJ _Donaldson_RB</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D305">
         <v>167</v>
@@ -14578,10 +14578,10 @@
         <v>Eli_Jackson-An_RB</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C306" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D306">
         <v>53</v>
@@ -14617,10 +14617,10 @@
         <v>Tat_Carney_RB</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D307">
         <v>84</v>
@@ -14656,10 +14656,10 @@
         <v>Dem_Claiborne_RB</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D308">
         <v>232</v>
@@ -14695,10 +14695,10 @@
         <v>Kan_Roberts_RB</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D309">
         <v>84</v>
@@ -14734,10 +14734,10 @@
         <v>Car_Norton_RB</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D310">
         <v>130</v>
@@ -14773,10 +14773,10 @@
         <v>Ant_Hankerson_RB</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D311">
         <v>235</v>
@@ -14812,10 +14812,10 @@
         <v>Tre_Etienne_RB</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D312">
         <v>126</v>
@@ -14851,10 +14851,10 @@
         <v>Oll_Gordon II_RB</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D313">
         <v>191</v>
@@ -14890,10 +14890,10 @@
         <v>Jab_Bates_RB</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D314">
         <v>60</v>
@@ -14929,10 +14929,10 @@
         <v>Joh_Martin_RB</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D315">
         <v>63</v>
@@ -14968,10 +14968,10 @@
         <v>Jai_Credle_RB</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D316">
         <v>110</v>
@@ -15007,10 +15007,10 @@
         <v>Jov_Barnes_RB</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D317">
         <v>124</v>
@@ -15046,10 +15046,10 @@
         <v>Taw_Walker_RB</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D318">
         <v>193</v>
@@ -15085,10 +15085,10 @@
         <v>Aid_Laughery_RB</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D319">
         <v>99</v>
@@ -15124,10 +15124,10 @@
         <v>LeQ_Allen_RB</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D320">
         <v>233</v>
@@ -15163,10 +15163,10 @@
         <v>Jay_Ott_RB</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D321">
         <v>121</v>
@@ -15202,10 +15202,10 @@
         <v>OJ _Arnold_RB</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D322">
         <v>64</v>
@@ -15241,10 +15241,10 @@
         <v>Mak_Hughes_RB</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D323">
         <v>268</v>
@@ -15280,10 +15280,10 @@
         <v>Jor_McDonald_RB</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D324">
         <v>53</v>
@@ -15319,10 +15319,10 @@
         <v>Ric_Reese_RB</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D325">
         <v>58</v>
@@ -15358,10 +15358,10 @@
         <v>Sam_Hicks_RB</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D326">
         <v>215</v>
@@ -15397,10 +15397,10 @@
         <v>Cam_Edwards_RB</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D327">
         <v>151</v>
@@ -15436,10 +15436,10 @@
         <v>Le'_Moss_RB</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D328">
         <v>127</v>
@@ -15475,10 +15475,10 @@
         <v>Jon_Coleman_RB</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D329">
         <v>193</v>
@@ -15514,10 +15514,10 @@
         <v>Tye_Edwards_RB</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D330">
         <v>159</v>
@@ -15553,10 +15553,10 @@
         <v>Eli_Gillman_RB</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D331">
         <v>168</v>
@@ -15592,10 +15592,10 @@
         <v>Qui_Craig_RB</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D332">
         <v>120</v>
@@ -15631,10 +15631,10 @@
         <v>Adr_Cormier_RB</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D333">
         <v>89</v>
@@ -15670,10 +15670,10 @@
         <v>Myl_Thomason_RB</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D334">
         <v>77</v>
@@ -15709,10 +15709,10 @@
         <v>Ple_Lawrence_RB</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D335">
         <v>109</v>
@@ -15748,10 +15748,10 @@
         <v>Pat_Bowen_RB</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D336">
         <v>73</v>
@@ -15787,10 +15787,10 @@
         <v>Qua_Holmes_RB</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D337">
         <v>101</v>
@@ -15826,10 +15826,10 @@
         <v>Zac_Palmer-Smi_RB</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D338">
         <v>265</v>
@@ -15865,10 +15865,10 @@
         <v>Dar_Smith_RB</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D339">
         <v>69</v>
@@ -15904,10 +15904,10 @@
         <v>Jor_Gant_RB</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D340">
         <v>66</v>
@@ -15943,10 +15943,10 @@
         <v>Jam_Curtis_RB</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D341">
         <v>235</v>
@@ -15982,10 +15982,10 @@
         <v>CJ _Miller_RB</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D342">
         <v>79</v>
@@ -16021,10 +16021,10 @@
         <v>Des_Reid_RB</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C343" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D343">
         <v>187</v>
@@ -16060,10 +16060,10 @@
         <v>Ken_Lacy_RB</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D344">
         <v>63</v>
@@ -16099,10 +16099,10 @@
         <v>Jo'_Barbie_RB</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C345" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D345">
         <v>149</v>
@@ -16138,10 +16138,10 @@
         <v>Ded_Talbert_RB</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C346" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D346">
         <v>60</v>
@@ -16177,10 +16177,10 @@
         <v>Mar_Harris_RB</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C347" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D347">
         <v>69</v>
@@ -16216,10 +16216,10 @@
         <v>NaQ_Rogers_RB</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C348" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D348">
         <v>76</v>
@@ -16255,10 +16255,10 @@
         <v>Qua_Ashley_RB</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C349" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D349">
         <v>123</v>
@@ -16294,10 +16294,10 @@
         <v>Mar_Maldonado_RB</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C350" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D350">
         <v>92</v>
@@ -16333,10 +16333,10 @@
         <v>Luk_Woodson_RB</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C351" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D351">
         <v>75</v>
@@ -16372,10 +16372,10 @@
         <v>Ede_James_RB</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C352" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D352">
         <v>101</v>
@@ -16411,10 +16411,10 @@
         <v>Sha_Lester_RB</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C353" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D353">
         <v>63</v>
@@ -16450,10 +16450,10 @@
         <v>Ema_Matthews_RB</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C354" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D354">
         <v>53</v>
@@ -16489,10 +16489,10 @@
         <v>Tre_Stewart_RB</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C355" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D355">
         <v>287</v>
@@ -16528,10 +16528,10 @@
         <v>Cam_Smith_RB</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C356" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D356">
         <v>185</v>
@@ -16567,10 +16567,10 @@
         <v>Ism_Mahdi_RB</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C357" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D357">
         <v>184</v>
@@ -16606,10 +16606,10 @@
         <v>Cor_Ibrahim_RB</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C358" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D358">
         <v>112</v>
@@ -16645,10 +16645,10 @@
         <v>Qua_Jennings_RB</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C359" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D359">
         <v>92</v>
@@ -16684,10 +16684,10 @@
         <v>Xav_Leigh_RB</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C360" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D360">
         <v>99</v>
@@ -16723,10 +16723,10 @@
         <v>Dam_Martinez_RB</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C361" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D361">
         <v>161</v>
@@ -16762,10 +16762,10 @@
         <v>T.J_Harden_RB</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C362" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D362">
         <v>131</v>
@@ -16801,10 +16801,10 @@
         <v>Mar_Gunn Jr._RB</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C363" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D363">
         <v>61</v>
@@ -16840,10 +16840,10 @@
         <v>Oma_Hampton_RB</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C364" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D364">
         <v>286</v>
@@ -16879,10 +16879,10 @@
         <v>Jos_Himon II_RB</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C365" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D365">
         <v>53</v>
@@ -16918,10 +16918,10 @@
         <v>Dal_Hayden_RB</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C366" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D366">
         <v>65</v>
@@ -16957,10 +16957,10 @@
         <v>Lee_Beebe Jr._RB</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C367" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D367">
         <v>175</v>
@@ -16996,10 +16996,10 @@
         <v>Tor_Burgess Jr_RB</v>
       </c>
       <c r="B368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C368" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D368">
         <v>64</v>
@@ -17035,10 +17035,10 @@
         <v>Jal_Buckley_RB</v>
       </c>
       <c r="B369" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C369" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D369">
         <v>128</v>
@@ -17074,10 +17074,10 @@
         <v>Noa_Short_RB</v>
       </c>
       <c r="B370" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C370" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D370">
         <v>74</v>
@@ -17113,10 +17113,10 @@
         <v>Jor_James_RB</v>
       </c>
       <c r="B371" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C371" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D371">
         <v>237</v>
@@ -17152,10 +17152,10 @@
         <v>Chr_Washington_RB</v>
       </c>
       <c r="B372" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C372" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D372">
         <v>104</v>
@@ -17191,10 +17191,10 @@
         <v>Dyl_Sampson_RB</v>
       </c>
       <c r="B373" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C373" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D373">
         <v>261</v>
@@ -17230,10 +17230,10 @@
         <v>Sav_Red_RB</v>
       </c>
       <c r="B374" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C374" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D374">
         <v>121</v>
@@ -17269,10 +17269,10 @@
         <v>Sam_Slade_RB</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C375" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D375">
         <v>82</v>
@@ -17308,10 +17308,10 @@
         <v>Das_Brooks_RB</v>
       </c>
       <c r="B376" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C376" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D376">
         <v>83</v>
@@ -17347,10 +17347,10 @@
         <v>Keo_Kauhi_RB</v>
       </c>
       <c r="B377" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C377" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D377">
         <v>58</v>
@@ -17386,10 +17386,10 @@
         <v>Jer_Wimbley_RB</v>
       </c>
       <c r="B378" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C378" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D378">
         <v>64</v>
@@ -17425,10 +17425,10 @@
         <v>Kay_Allen_RB</v>
       </c>
       <c r="B379" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C379" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D379">
         <v>220</v>
@@ -17464,10 +17464,10 @@
         <v>Nic_Singleton_RB</v>
       </c>
       <c r="B380" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C380" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D380">
         <v>175</v>
@@ -17503,10 +17503,10 @@
         <v>Cha_Belcher_RB</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C381" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D381">
         <v>52</v>
@@ -17542,10 +17542,10 @@
         <v>Gri_Woodell_RB</v>
       </c>
       <c r="B382" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C382" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D382">
         <v>66</v>
@@ -17581,10 +17581,10 @@
         <v>Jo'_Silver_RB</v>
       </c>
       <c r="B383" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C383" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D383">
         <v>70</v>
@@ -17620,10 +17620,10 @@
         <v>Mak_Green_RB</v>
       </c>
       <c r="B384" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C384" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D384">
         <v>54</v>
@@ -17659,10 +17659,10 @@
         <v>Jos_Pitsenberg_RB</v>
       </c>
       <c r="B385" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C385" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D385">
         <v>149</v>
@@ -17698,10 +17698,10 @@
         <v>Kev_King_RB</v>
       </c>
       <c r="B386" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C386" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D386">
         <v>154</v>
@@ -17737,10 +17737,10 @@
         <v>Cha_Pierre Jr._RB</v>
       </c>
       <c r="B387" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C387" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D387">
         <v>167</v>
@@ -17776,10 +17776,10 @@
         <v>Jer_Corbett_RB</v>
       </c>
       <c r="B388" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C388" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D388">
         <v>193</v>
@@ -17815,10 +17815,10 @@
         <v>Jar_Washington_RB</v>
       </c>
       <c r="B389" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C389" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D389">
         <v>146</v>
@@ -17854,10 +17854,10 @@
         <v>Zav_Woodard_RB</v>
       </c>
       <c r="B390" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C390" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D390">
         <v>110</v>
@@ -17893,10 +17893,10 @@
         <v>Jaw_Northingto_RB</v>
       </c>
       <c r="B391" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C391" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D391">
         <v>111</v>
@@ -17932,10 +17932,10 @@
         <v>Mar_Adams_RB</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C392" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D392">
         <v>194</v>
@@ -17971,10 +17971,10 @@
         <v>Mas_Sheron_RB</v>
       </c>
       <c r="B393" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C393" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D393">
         <v>163</v>
@@ -18010,10 +18010,10 @@
         <v>Gab_Abel_RB</v>
       </c>
       <c r="B394" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C394" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D394">
         <v>72</v>
@@ -18049,10 +18049,10 @@
         <v>Don_Shepard_RB</v>
       </c>
       <c r="B395" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C395" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D395">
         <v>56</v>
@@ -18088,10 +18088,10 @@
         <v>Rya_Mann_RB</v>
       </c>
       <c r="B396" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C396" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D396">
         <v>66</v>
@@ -18127,10 +18127,10 @@
         <v>Car_James_RB</v>
       </c>
       <c r="B397" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C397" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D397">
         <v>85</v>
@@ -18166,10 +18166,10 @@
         <v>Flo_Chalk IV_RB</v>
       </c>
       <c r="B398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C398" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D398">
         <v>158</v>
@@ -18205,10 +18205,10 @@
         <v>Ken_Rhymes_RB</v>
       </c>
       <c r="B399" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C399" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D399">
         <v>135</v>
@@ -18244,10 +18244,10 @@
         <v>Dek_Taylor_RB</v>
       </c>
       <c r="B400" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C400" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D400">
         <v>156</v>
@@ -18283,10 +18283,10 @@
         <v>Con_Wisham_RB</v>
       </c>
       <c r="B401" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C401" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D401">
         <v>80</v>
@@ -18322,10 +18322,10 @@
         <v>Mel_Brown_RB</v>
       </c>
       <c r="B402" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C402" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D402">
         <v>121</v>
@@ -18361,10 +18361,10 @@
         <v>Jac_Sewell_RB</v>
       </c>
       <c r="B403" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C403" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D403">
         <v>148</v>
@@ -18400,10 +18400,10 @@
         <v>Mar_Anderson J_RB</v>
       </c>
       <c r="B404" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C404" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D404">
         <v>242</v>
@@ -18439,10 +18439,10 @@
         <v>Arn_Barnes III_RB</v>
       </c>
       <c r="B405" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C405" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D405">
         <v>89</v>
@@ -18478,10 +18478,10 @@
         <v>Pey_Jones_RB</v>
       </c>
       <c r="B406" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C406" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D406">
         <v>84</v>
@@ -18517,10 +18517,10 @@
         <v>Kam_Moulton_RB</v>
       </c>
       <c r="B407" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C407" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D407">
         <v>83</v>
@@ -18556,10 +18556,10 @@
         <v>Nol_Ray_RB</v>
       </c>
       <c r="B408" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C408" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D408">
         <v>76</v>
@@ -18595,10 +18595,10 @@
         <v>Lon_Montgomery_RB</v>
       </c>
       <c r="B409" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C409" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D409">
         <v>72</v>
@@ -18634,10 +18634,10 @@
         <v>Ken_Raphael_RB</v>
       </c>
       <c r="B410" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C410" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D410">
         <v>81</v>
@@ -18673,10 +18673,10 @@
         <v>Jek_Middlebroo_RB</v>
       </c>
       <c r="B411" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C411" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D411">
         <v>62</v>
@@ -18712,10 +18712,10 @@
         <v>Bra_Latham_RB</v>
       </c>
       <c r="B412" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C412" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D412">
         <v>142</v>
@@ -18751,10 +18751,10 @@
         <v>Den_Moody_RB</v>
       </c>
       <c r="B413" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C413" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D413">
         <v>62</v>
@@ -18790,10 +18790,10 @@
         <v>Aid_Ramos_RB</v>
       </c>
       <c r="B414" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C414" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D414">
         <v>108</v>
@@ -18829,10 +18829,10 @@
         <v>Del_Thompson_RB</v>
       </c>
       <c r="B415" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C415" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D415">
         <v>140</v>
@@ -18868,10 +18868,10 @@
         <v>Cur_Borders_RB</v>
       </c>
       <c r="B416" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C416" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D416">
         <v>69</v>
@@ -18907,10 +18907,10 @@
         <v>Rod_Nelson_RB</v>
       </c>
       <c r="B417" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C417" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D417">
         <v>133</v>
@@ -18946,10 +18946,10 @@
         <v>Azi_Foster-Pow_RB</v>
       </c>
       <c r="B418" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C418" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D418">
         <v>57</v>
@@ -18985,10 +18985,10 @@
         <v>Isa_Ragland_RB</v>
       </c>
       <c r="B419" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C419" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D419">
         <v>109</v>
@@ -19024,10 +19024,10 @@
         <v>Kan_Udoh_RB</v>
       </c>
       <c r="B420" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C420" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D420">
         <v>180</v>
@@ -19063,10 +19063,10 @@
         <v>Jer_Love_RB</v>
       </c>
       <c r="B421" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C421" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D421">
         <v>166</v>
@@ -19102,10 +19102,10 @@
         <v>Ean_Pope_RB</v>
       </c>
       <c r="B422" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C422" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D422">
         <v>112</v>
@@ -19141,10 +19141,10 @@
         <v>Dyl_Kedzior_RB</v>
       </c>
       <c r="B423" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C423" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D423">
         <v>94</v>
@@ -19180,10 +19180,10 @@
         <v>Ric_Hunt Jr._RB</v>
       </c>
       <c r="B424" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C424" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D424">
         <v>78</v>
@@ -19219,10 +19219,10 @@
         <v>Con_Walendzak_RB</v>
       </c>
       <c r="B425" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C425" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D425">
         <v>126</v>
@@ -19258,10 +19258,10 @@
         <v>CJ _Hester_RB</v>
       </c>
       <c r="B426" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C426" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D426">
         <v>121</v>
@@ -19297,10 +19297,10 @@
         <v>Tys_King_RB</v>
       </c>
       <c r="B427" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C427" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D427">
         <v>139</v>
@@ -19336,10 +19336,10 @@
         <v>Bre_Wyatt_RB</v>
       </c>
       <c r="B428" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C428" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D428">
         <v>58</v>
@@ -19375,10 +19375,10 @@
         <v>Sek_Kamau_RB</v>
       </c>
       <c r="B429" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C429" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D429">
         <v>58</v>
@@ -19414,10 +19414,10 @@
         <v>Ste_Hall_RB</v>
       </c>
       <c r="B430" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C430" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D430">
         <v>111</v>
@@ -19453,10 +19453,10 @@
         <v>Kyw_Morgan_RB</v>
       </c>
       <c r="B431" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C431" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D431">
         <v>59</v>
@@ -19492,10 +19492,10 @@
         <v>Dyl_Edwards_RB</v>
       </c>
       <c r="B432" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C432" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D432">
         <v>74</v>
@@ -19531,10 +19531,10 @@
         <v>Chr_Gee_RB</v>
       </c>
       <c r="B433" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C433" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D433">
         <v>78</v>
@@ -19570,10 +19570,10 @@
         <v>Bry_Cox_RB</v>
       </c>
       <c r="B434" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C434" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D434">
         <v>102</v>
@@ -19609,10 +19609,10 @@
         <v>Tro_Bruce_RB</v>
       </c>
       <c r="B435" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C435" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D435">
         <v>79</v>
@@ -19648,10 +19648,10 @@
         <v>Luk_Yoder_RB</v>
       </c>
       <c r="B436" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C436" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D436">
         <v>194</v>
@@ -19687,10 +19687,10 @@
         <v>Dur_Robinson_RB</v>
       </c>
       <c r="B437" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C437" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D437">
         <v>108</v>
@@ -19726,10 +19726,10 @@
         <v>Jus_Haynes_RB</v>
       </c>
       <c r="B438" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C438" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D438">
         <v>81</v>
@@ -19765,10 +19765,10 @@
         <v>Isa_Augustave_RB</v>
       </c>
       <c r="B439" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C439" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D439">
         <v>86</v>
@@ -19804,10 +19804,10 @@
         <v>Ked_Reescano_RB</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C440" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D440">
         <v>79</v>
@@ -19843,10 +19843,10 @@
         <v>Sed_Alexander_RB</v>
       </c>
       <c r="B441" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C441" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D441">
         <v>167</v>
@@ -19882,10 +19882,10 @@
         <v>Lev_Summersett_RB</v>
       </c>
       <c r="B442" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C442" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D442">
         <v>71</v>
@@ -19921,10 +19921,10 @@
         <v>Lon_Turner_RB</v>
       </c>
       <c r="B443" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C443" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D443">
         <v>111</v>
@@ -19960,10 +19960,10 @@
         <v>Re'_Sanford II_RB</v>
       </c>
       <c r="B444" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C444" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D444">
         <v>98</v>
@@ -19999,10 +19999,10 @@
         <v>Cam_Cook_RB</v>
       </c>
       <c r="B445" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C445" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D445">
         <v>118</v>
@@ -20038,10 +20038,10 @@
         <v>Jah_White_RB</v>
       </c>
       <c r="B446" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C446" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D446">
         <v>152</v>
@@ -20077,10 +20077,10 @@
         <v>Mak_McGill II_RB</v>
       </c>
       <c r="B447" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C447" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D447">
         <v>80</v>
@@ -20116,10 +20116,10 @@
         <v>Dar_Taylor_RB</v>
       </c>
       <c r="B448" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C448" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D448">
         <v>208</v>
@@ -20155,10 +20155,10 @@
         <v>Jus_Marshall_RB</v>
       </c>
       <c r="B449" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C449" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D449">
         <v>159</v>
@@ -20194,10 +20194,10 @@
         <v>Hol_Smothers_RB</v>
       </c>
       <c r="B450" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C450" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D450">
         <v>93</v>
@@ -20233,10 +20233,10 @@
         <v>Jas_Collins_RB</v>
       </c>
       <c r="B451" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C451" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D451">
         <v>114</v>
@@ -20272,10 +20272,10 @@
         <v>Myl_Miree_RB</v>
       </c>
       <c r="B452" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C452" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D452">
         <v>124</v>
@@ -20311,10 +20311,10 @@
         <v>Eth_Clark_RB</v>
       </c>
       <c r="B453" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C453" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D453">
         <v>71</v>
@@ -20350,10 +20350,10 @@
         <v>Kad_Feagin_RB</v>
       </c>
       <c r="B454" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C454" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D454">
         <v>66</v>
@@ -20389,10 +20389,10 @@
         <v>Jai_Thomas_RB</v>
       </c>
       <c r="B455" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C455" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D455">
         <v>165</v>
@@ -20428,10 +20428,10 @@
         <v>Rob_Henry Jr._RB</v>
       </c>
       <c r="B456" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C456" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D456">
         <v>129</v>
@@ -20467,10 +20467,10 @@
         <v>Bra_High Jr._RB</v>
       </c>
       <c r="B457" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C457" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D457">
         <v>93</v>
@@ -20506,10 +20506,10 @@
         <v>Dan_Dowdell_RB</v>
       </c>
       <c r="B458" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C458" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D458">
         <v>145</v>
@@ -20545,10 +20545,10 @@
         <v>Dav_Mbadinga_RB</v>
       </c>
       <c r="B459" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C459" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D459">
         <v>61</v>
@@ -20584,10 +20584,10 @@
         <v>Qui_Joyner_RB</v>
       </c>
       <c r="B460" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C460" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D460">
         <v>64</v>
@@ -20623,10 +20623,10 @@
         <v>Ja'_Jackson_RB</v>
       </c>
       <c r="B461" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C461" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D461">
         <v>96</v>
@@ -20662,10 +20662,10 @@
         <v>X'Z_Evans_RB</v>
       </c>
       <c r="B462" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C462" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D462">
         <v>96</v>
@@ -20701,10 +20701,10 @@
         <v>Cha_Brown_RB</v>
       </c>
       <c r="B463" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C463" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D463">
         <v>248</v>
@@ -20740,10 +20740,10 @@
         <v>Jes_Valenzuela_RB</v>
       </c>
       <c r="B464" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C464" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D464">
         <v>72</v>
@@ -20779,10 +20779,10 @@
         <v>Aid_Littles_RB</v>
       </c>
       <c r="B465" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C465" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D465">
         <v>62</v>
@@ -20818,10 +20818,10 @@
         <v>Daw_Pendergras_RB</v>
       </c>
       <c r="B466" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C466" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D466">
         <v>123</v>
@@ -20857,10 +20857,10 @@
         <v>Bry_Washington_RB</v>
       </c>
       <c r="B467" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C467" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D467">
         <v>178</v>
@@ -20896,10 +20896,10 @@
         <v>Car_Hansen_RB</v>
       </c>
       <c r="B468" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C468" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D468">
         <v>151</v>
@@ -20935,10 +20935,10 @@
         <v>Abu_Sama III_RB</v>
       </c>
       <c r="B469" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C469" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D469">
         <v>125</v>
@@ -20974,10 +20974,10 @@
         <v>DeS_Bishop_RB</v>
       </c>
       <c r="B470" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C470" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D470">
         <v>74</v>
@@ -21013,10 +21013,10 @@
         <v>Dav_Booth_RB</v>
       </c>
       <c r="B471" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C471" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D471">
         <v>155</v>
@@ -21052,10 +21052,10 @@
         <v>LJ _Martin_RB</v>
       </c>
       <c r="B472" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C472" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D472">
         <v>140</v>
@@ -21091,10 +21091,10 @@
         <v>Des_Buchanan_RB</v>
       </c>
       <c r="B473" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C473" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D473">
         <v>79</v>
@@ -21130,10 +21130,10 @@
         <v>Art_Williams_RB</v>
       </c>
       <c r="B474" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C474" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D474">
         <v>67</v>
@@ -21169,10 +21169,10 @@
         <v>Jam_Wilcox_RB</v>
       </c>
       <c r="B475" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C475" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D475">
         <v>96</v>
@@ -21208,10 +21208,10 @@
         <v>Cha_Alexander_RB</v>
       </c>
       <c r="B476" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C476" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D476">
         <v>58</v>
@@ -21247,10 +21247,10 @@
         <v>Mar_Fletcher J_RB</v>
       </c>
       <c r="B477" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C477" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D477">
         <v>113</v>
@@ -21286,10 +21286,10 @@
         <v>D.J_McKinney_RB</v>
       </c>
       <c r="B478" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C478" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D478">
         <v>98</v>
@@ -21325,10 +21325,10 @@
         <v>Eze_Jolly_RB</v>
       </c>
       <c r="B479" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C479" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D479">
         <v>66</v>
@@ -21364,10 +21364,10 @@
         <v>Jam_Roberts_RB</v>
       </c>
       <c r="B480" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C480" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D480">
         <v>54</v>
@@ -21403,10 +21403,10 @@
         <v>Jac_Barksdale_RB</v>
       </c>
       <c r="B481" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C481" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D481">
         <v>82</v>
@@ -21442,10 +21442,10 @@
         <v>Qui_Wisner_RB</v>
       </c>
       <c r="B482" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C482" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D482">
         <v>235</v>
@@ -21481,10 +21481,10 @@
         <v>Bil_Davis_RB</v>
       </c>
       <c r="B483" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C483" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D483">
         <v>165</v>
@@ -21520,10 +21520,10 @@
         <v>Rah_Faison_RB</v>
       </c>
       <c r="B484" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C484" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D484">
         <v>204</v>
@@ -21559,10 +21559,10 @@
         <v>Cal_Komolafe_RB</v>
       </c>
       <c r="B485" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C485" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D485">
         <v>53</v>
@@ -21598,10 +21598,10 @@
         <v>Kys_Brown_RB</v>
       </c>
       <c r="B486" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C486" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D486">
         <v>73</v>
@@ -21637,10 +21637,10 @@
         <v>Isa_Stopke_RB</v>
       </c>
       <c r="B487" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C487" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D487">
         <v>93</v>
@@ -21676,10 +21676,10 @@
         <v>Jai_Thomas_RB</v>
       </c>
       <c r="B488" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C488" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D488">
         <v>103</v>
@@ -21715,10 +21715,10 @@
         <v>Leo_Pulalasi_RB</v>
       </c>
       <c r="B489" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C489" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D489">
         <v>66</v>
@@ -21754,10 +21754,10 @@
         <v>Mal_Dotson_RB</v>
       </c>
       <c r="B490" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C490" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D490">
         <v>87</v>
@@ -21793,10 +21793,10 @@
         <v>Col_Coon_RB</v>
       </c>
       <c r="B491" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C491" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D491">
         <v>65</v>
@@ -21832,10 +21832,10 @@
         <v>Sco_Humphrey_RB</v>
       </c>
       <c r="B492" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C492" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D492">
         <v>203</v>
@@ -21871,10 +21871,10 @@
         <v>Ada_Jones_RB</v>
       </c>
       <c r="B493" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C493" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D493">
         <v>185</v>
@@ -21910,10 +21910,10 @@
         <v>Den_Gibson_RB</v>
       </c>
       <c r="B494" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C494" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D494">
         <v>78</v>
@@ -21949,10 +21949,10 @@
         <v>Tyr_Greene Jr._RB</v>
       </c>
       <c r="B495" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C495" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D495">
         <v>126</v>
@@ -21988,10 +21988,10 @@
         <v>Saw_Seidl_RB</v>
       </c>
       <c r="B496" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C496" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D496">
         <v>91</v>
@@ -22027,10 +22027,10 @@
         <v>Kir_Vorhees_RB</v>
       </c>
       <c r="B497" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C497" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D497">
         <v>75</v>
@@ -22066,10 +22066,10 @@
         <v>Jay_Clerveaux_RB</v>
       </c>
       <c r="B498" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C498" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D498">
         <v>199</v>
@@ -22105,10 +22105,10 @@
         <v>Xav_Bascon_RB</v>
       </c>
       <c r="B499" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C499" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D499">
         <v>126</v>
@@ -22144,10 +22144,10 @@
         <v>Mal_Hosley_RB</v>
       </c>
       <c r="B500" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C500" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D500">
         <v>194</v>
@@ -22183,10 +22183,10 @@
         <v>Mas_Hackett_RB</v>
       </c>
       <c r="B501" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C501" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D501">
         <v>185</v>
@@ -22222,10 +22222,10 @@
         <v>Luk_Hansen_RB</v>
       </c>
       <c r="B502" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C502" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D502">
         <v>88</v>
@@ -22261,10 +22261,10 @@
         <v>Zac_Switzer_RB</v>
       </c>
       <c r="B503" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C503" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D503">
         <v>67</v>
@@ -22300,10 +22300,10 @@
         <v>Mar_Cochran_RB</v>
       </c>
       <c r="B504" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C504" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D504">
         <v>51</v>
@@ -22339,10 +22339,10 @@
         <v>Jay_Jenkins_RB</v>
       </c>
       <c r="B505" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C505" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D505">
         <v>96</v>
@@ -22378,10 +22378,10 @@
         <v>Sha_Solomon Jr_RB</v>
       </c>
       <c r="B506" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C506" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D506">
         <v>69</v>
@@ -22417,10 +22417,10 @@
         <v>Shi_Blizzard_RB</v>
       </c>
       <c r="B507" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C507" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D507">
         <v>103</v>
@@ -22456,10 +22456,10 @@
         <v>BJ _Curry_RB</v>
       </c>
       <c r="B508" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C508" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D508">
         <v>129</v>
@@ -22495,10 +22495,10 @@
         <v>Tys_Greenwade_RB</v>
       </c>
       <c r="B509" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C509" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D509">
         <v>101</v>
@@ -22534,10 +22534,10 @@
         <v>Aut_Ison_RB</v>
       </c>
       <c r="B510" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C510" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D510">
         <v>175</v>
@@ -22573,10 +22573,10 @@
         <v>J.T_Smith Jr._RB</v>
       </c>
       <c r="B511" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C511" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D511">
         <v>77</v>
@@ -22612,10 +22612,10 @@
         <v>Tar_Lambson_RB</v>
       </c>
       <c r="B512" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C512" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D512">
         <v>328</v>
@@ -22651,10 +22651,10 @@
         <v>Bri_Trobel_RB</v>
       </c>
       <c r="B513" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C513" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D513">
         <v>85</v>
@@ -22690,10 +22690,10 @@
         <v>Don_Snyder_RB</v>
       </c>
       <c r="B514" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C514" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D514">
         <v>72</v>
@@ -22729,10 +22729,10 @@
         <v>Za'_Webber_RB</v>
       </c>
       <c r="B515" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C515" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D515">
         <v>66</v>
@@ -22768,10 +22768,10 @@
         <v>Jus_Durant_RB</v>
       </c>
       <c r="B516" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C516" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D516">
         <v>59</v>
@@ -22807,10 +22807,10 @@
         <v>Bri_Santana-Fi_RB</v>
       </c>
       <c r="B517" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C517" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D517">
         <v>88</v>
@@ -22846,10 +22846,10 @@
         <v>Kam_Davis_RB</v>
       </c>
       <c r="B518" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C518" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D518">
         <v>53</v>
@@ -22885,10 +22885,10 @@
         <v>Isa_Brown_RB</v>
       </c>
       <c r="B519" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C519" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D519">
         <v>165</v>
@@ -22924,10 +22924,10 @@
         <v>Dav_Gause_RB</v>
       </c>
       <c r="B520" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C520" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D520">
         <v>69</v>
@@ -22963,10 +22963,10 @@
         <v>Ca'_Valentine_RB</v>
       </c>
       <c r="B521" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C521" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D521">
         <v>53</v>
@@ -23002,10 +23002,10 @@
         <v>Dar_Dupree_RB</v>
       </c>
       <c r="B522" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C522" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D522">
         <v>79</v>
@@ -23041,10 +23041,10 @@
         <v>Jam_Peoples_RB</v>
       </c>
       <c r="B523" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C523" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D523">
         <v>50</v>
@@ -23080,10 +23080,10 @@
         <v>Jer_Payne_RB</v>
       </c>
       <c r="B524" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C524" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D524">
         <v>53</v>
@@ -23119,10 +23119,10 @@
         <v>Omi_Wiggins_RB</v>
       </c>
       <c r="B525" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C525" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D525">
         <v>112</v>
@@ -23158,10 +23158,10 @@
         <v>Jad_McGill_RB</v>
       </c>
       <c r="B526" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C526" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D526">
         <v>118</v>
@@ -23197,10 +23197,10 @@
         <v>Gre_Burrell_RB</v>
       </c>
       <c r="B527" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C527" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D527">
         <v>66</v>
@@ -23236,10 +23236,10 @@
         <v>Way_Parker_RB</v>
       </c>
       <c r="B528" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C528" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D528">
         <v>139</v>
@@ -23275,10 +23275,10 @@
         <v>Bra_Russell_RB</v>
       </c>
       <c r="B529" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C529" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D529">
         <v>67</v>
@@ -23314,10 +23314,10 @@
         <v>Jad_Baugh_RB</v>
       </c>
       <c r="B530" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C530" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D530">
         <v>137</v>
@@ -23353,10 +23353,10 @@
         <v>Cad_Durham_RB</v>
       </c>
       <c r="B531" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C531" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D531">
         <v>142</v>
@@ -23392,10 +23392,10 @@
         <v>Jer_Gibson_RB</v>
       </c>
       <c r="B532" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C532" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D532">
         <v>78</v>
@@ -23431,10 +23431,10 @@
         <v>Joh_Daniels_RB</v>
       </c>
       <c r="B533" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C533" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D533">
         <v>108</v>
@@ -23470,10 +23470,10 @@
         <v>Pey_Lewis_RB</v>
       </c>
       <c r="B534" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C534" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D534">
         <v>64</v>
@@ -23509,10 +23509,10 @@
         <v>Set_Cromwell_RB</v>
       </c>
       <c r="B535" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C535" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D535">
         <v>127</v>
@@ -23548,10 +23548,10 @@
         <v>Car_Gresock_RB</v>
       </c>
       <c r="B536" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C536" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D536">
         <v>87</v>
@@ -23587,10 +23587,10 @@
         <v>Mat_Lawson_RB</v>
       </c>
       <c r="B537" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C537" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D537">
         <v>105</v>
@@ -23626,10 +23626,10 @@
         <v>Jer_Parker_RB</v>
       </c>
       <c r="B538" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C538" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D538">
         <v>77</v>
@@ -23665,10 +23665,10 @@
         <v>Jad_Green_RB</v>
       </c>
       <c r="B539" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C539" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D539">
         <v>144</v>
@@ -23704,10 +23704,10 @@
         <v>Mar_Holman_RB</v>
       </c>
       <c r="B540" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C540" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D540">
         <v>140</v>
@@ -23743,10 +23743,10 @@
         <v>Gav_Hall_RB</v>
       </c>
       <c r="B541" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C541" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D541">
         <v>64</v>
@@ -23782,10 +23782,10 @@
         <v>Ant_Wright_RB</v>
       </c>
       <c r="B542" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C542" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D542">
         <v>71</v>
@@ -23821,10 +23821,10 @@
         <v>Zay_Davis_RB</v>
       </c>
       <c r="B543" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C543" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D543">
         <v>90</v>
@@ -23860,10 +23860,10 @@
         <v>Jam_Hostzclaw_RB</v>
       </c>
       <c r="B544" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C544" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D544">
         <v>76</v>
@@ -23899,10 +23899,10 @@
         <v>Daq_Kincey_RB</v>
       </c>
       <c r="B545" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C545" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D545">
         <v>129</v>
@@ -23938,10 +23938,10 @@
         <v>Dav_Avit_RB</v>
       </c>
       <c r="B546" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C546" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D546">
         <v>175</v>
@@ -23977,10 +23977,10 @@
         <v>Raj_Mosley_RB</v>
       </c>
       <c r="B547" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C547" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D547">
         <v>143</v>
@@ -24016,10 +24016,10 @@
         <v>Ayr_Rodriguez_RB</v>
       </c>
       <c r="B548" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C548" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D548">
         <v>83</v>
@@ -24055,10 +24055,10 @@
         <v>Tel_Johnson Jr_RB</v>
       </c>
       <c r="B549" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C549" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D549">
         <v>104</v>
@@ -24094,10 +24094,10 @@
         <v>TJ _Thomas Jr._RB</v>
       </c>
       <c r="B550" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C550" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D550">
         <v>95</v>
@@ -24133,10 +24133,10 @@
         <v>Dwa_McGee_RB</v>
       </c>
       <c r="B551" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C551" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D551">
         <v>234</v>
@@ -24172,10 +24172,10 @@
         <v>Tra_Terrell Jr_RB</v>
       </c>
       <c r="B552" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C552" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D552">
         <v>79</v>
@@ -24211,10 +24211,10 @@
         <v>Tay_Tatum_RB</v>
       </c>
       <c r="B553" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C553" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D553">
         <v>57</v>
@@ -24250,10 +24250,10 @@
         <v>Chr_Davis Jr._RB</v>
       </c>
       <c r="B554" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C554" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D554">
         <v>55</v>
@@ -24289,10 +24289,10 @@
         <v>Mic_Ford_RB</v>
       </c>
       <c r="B555" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C555" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D555">
         <v>81</v>
@@ -24328,10 +24328,10 @@
         <v>Jal_Fletcher_RB</v>
       </c>
       <c r="B556" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C556" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D556">
         <v>52</v>
@@ -24367,10 +24367,10 @@
         <v>Tar_Thomas_RB</v>
       </c>
       <c r="B557" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C557" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D557">
         <v>168</v>
@@ -24406,10 +24406,10 @@
         <v>Tre_Clark_RB</v>
       </c>
       <c r="B558" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C558" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D558">
         <v>76</v>
@@ -24445,10 +24445,10 @@
         <v>Mal_Dryden_RB</v>
       </c>
       <c r="B559" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C559" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D559">
         <v>53</v>
@@ -24484,10 +24484,10 @@
         <v>Jor_Lyle_RB</v>
       </c>
       <c r="B560" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C560" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D560">
         <v>55</v>
@@ -24523,10 +24523,10 @@
         <v>Ama_Givens_RB</v>
       </c>
       <c r="B561" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C561" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D561">
         <v>76</v>
@@ -24562,10 +24562,10 @@
         <v>Ahm_Hardy_RB</v>
       </c>
       <c r="B562" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C562" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D562">
         <v>240</v>
@@ -24601,10 +24601,10 @@
         <v>Jam_Jones_RB</v>
       </c>
       <c r="B563" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C563" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D563">
         <v>83</v>
@@ -24640,10 +24640,10 @@
         <v>Flu_Bothwell_RB</v>
       </c>
       <c r="B564" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C564" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D564">
         <v>115</v>
@@ -24679,10 +24679,10 @@
         <v>Tur_Richard_RB</v>
       </c>
       <c r="B565" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C565" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D565">
         <v>57</v>
@@ -24718,10 +24718,10 @@
         <v>Ant_Raymond_RB</v>
       </c>
       <c r="B566" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C566" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D566">
         <v>102</v>
@@ -24757,10 +24757,10 @@
         <v>Duk_Watson_RB</v>
       </c>
       <c r="B567" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C567" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D567">
         <v>69</v>
@@ -24796,10 +24796,10 @@
         <v>Ter_Worthy_RB</v>
       </c>
       <c r="B568" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C568" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D568">
         <v>82</v>
@@ -24835,10 +24835,10 @@
         <v>Llo_Avant_RB</v>
       </c>
       <c r="B569" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C569" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D569">
         <v>77</v>
@@ -24874,10 +24874,10 @@
         <v>Vir_Ellison Jr_RB</v>
       </c>
       <c r="B570" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C570" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D570">
         <v>63</v>
@@ -24913,10 +24913,10 @@
         <v>Bry_Donelson_RB</v>
       </c>
       <c r="B571" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C571" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D571">
         <v>79</v>
@@ -24952,10 +24952,10 @@
         <v>Nat_Frazier_RB</v>
       </c>
       <c r="B572" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C572" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D572">
         <v>135</v>
@@ -24991,10 +24991,10 @@
         <v>Sal_Allah_RB</v>
       </c>
       <c r="B573" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C573" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D573">
         <v>55</v>
@@ -25030,10 +25030,10 @@
         <v>Her_Turner_RB</v>
       </c>
       <c r="B574" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C574" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D574">
         <v>83</v>
@@ -25069,10 +25069,10 @@
         <v>Mie_Brock_RB</v>
       </c>
       <c r="B575" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C575" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D575">
         <v>76</v>
@@ -25108,10 +25108,10 @@
         <v>Jou_Wyche_RB</v>
       </c>
       <c r="B576" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C576" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D576">
         <v>64</v>
@@ -25147,10 +25147,10 @@
         <v>Dav_Godley_RB</v>
       </c>
       <c r="B577" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C577" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D577">
         <v>102</v>
@@ -25186,10 +25186,10 @@
         <v>Mat_Childs_RB</v>
       </c>
       <c r="B578" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C578" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D578">
         <v>93</v>
@@ -25225,10 +25225,10 @@
         <v>Pay_Brown_RB</v>
       </c>
       <c r="B579" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C579" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D579">
         <v>64</v>
@@ -25264,10 +25264,10 @@
         <v>Ath_Renfro_RB</v>
       </c>
       <c r="B580" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C580" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D580">
         <v>74</v>
@@ -25303,10 +25303,10 @@
         <v>Jai_McMillian_RB</v>
       </c>
       <c r="B581" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C581" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D581">
         <v>76</v>
@@ -25342,10 +25342,10 @@
         <v>Joj_Uga_RB</v>
       </c>
       <c r="B582" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C582" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D582">
         <v>103</v>
@@ -25381,10 +25381,10 @@
         <v>Den_Palmer_RB</v>
       </c>
       <c r="B583" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C583" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D583">
         <v>162</v>
@@ -25420,10 +25420,10 @@
         <v>Deo_Duehart_RB</v>
       </c>
       <c r="B584" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C584" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D584">
         <v>112</v>
@@ -25459,10 +25459,10 @@
         <v>Jac_Newman_RB</v>
       </c>
       <c r="B585" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C585" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D585">
         <v>72</v>
@@ -25498,10 +25498,10 @@
         <v>JJ _Cowan_RB</v>
       </c>
       <c r="B586" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C586" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D586">
         <v>68</v>
